--- a/Output/March/productivity_agent/productivity_agent_2022-03-14.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-14.xlsx
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>3835</v>
+        <v>3881</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>790.7216494845361</v>
+        <v>800.2061855670104</v>
       </c>
       <c r="BA27">
         <v>0</v>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="CL27">
-        <v>0.9302607640994542</v>
+        <v>0.9414190418435416</v>
       </c>
       <c r="CM27">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="DA27">
-        <v>0.807847555923778</v>
+        <v>0.8169942004971003</v>
       </c>
     </row>
     <row r="28" spans="1:105">
@@ -23182,7 +23182,7 @@
         <v>1381</v>
       </c>
       <c r="N70">
-        <v>3513</v>
+        <v>3548</v>
       </c>
       <c r="O70">
         <v>788</v>
@@ -23296,7 +23296,7 @@
         <v>0</v>
       </c>
       <c r="AZ70">
-        <v>490.1860465116279</v>
+        <v>495.0697674418604</v>
       </c>
       <c r="BA70">
         <v>1027.826086956522</v>
@@ -23410,7 +23410,7 @@
         <v>0</v>
       </c>
       <c r="CL70">
-        <v>0.5766894664842681</v>
+        <v>0.5824350205198359</v>
       </c>
       <c r="CM70">
         <v>1.284782608695652</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="DA70">
-        <v>0.64511863568957</v>
+        <v>0.6503089471082552</v>
       </c>
     </row>
     <row r="71" spans="1:105">
